--- a/MTMSystem/out/production/MTMSystem/Candidate.xlsx
+++ b/MTMSystem/out/production/MTMSystem/Candidate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianzhang/MTMSystem/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoranliu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5A2EBE-6C55-2D49-9CFB-0275D91BA5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FD76E1D-908F-2F46-91AE-938942029563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="820" windowWidth="28040" windowHeight="16240" xr2:uid="{A6BE8DEF-EF41-DE40-BC2A-40B3CC96FE19}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A6BE8DEF-EF41-DE40-BC2A-40B3CC96FE19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
   <si>
     <t>Candidate ID</t>
   </si>
@@ -75,18 +75,12 @@
     <t>David Howie</t>
   </si>
   <si>
-    <t>22 Linkey Street, CL</t>
-  </si>
-  <si>
     <t>ABN</t>
   </si>
   <si>
     <t>ME, MDS</t>
   </si>
   <si>
-    <t>3yr</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
@@ -96,16 +90,317 @@
     <t>vegan</t>
   </si>
   <si>
-    <t>surgeon</t>
-  </si>
-  <si>
     <t>expert</t>
   </si>
   <si>
-    <t>french</t>
-  </si>
-  <si>
     <t>Food preference</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andy Holfllr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>James Goodman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cendy Bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 Linkey Street, Clayton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 London St, Bentleigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19 Redwood Rd, Brighton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 Manatunga St, Clayton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>French</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>male</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>female</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob Thomas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 Makdi St, Woodle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME, MDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 Kings Rd, Melbourne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luize Nagamde</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 Adien St, Clayton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen Ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04/04/1980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS,BE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huateng Ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lily Goodman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/08/1990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 Bule St, Cile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob Danial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29/09/1970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 Yellow Rd, Buwood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oliver Walker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 Lisz Rd, Boxhill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ellen Jones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/07/1991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 Oct Rd, Boxhill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhiyuan Lin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 Renmin Rd, Changyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDS,BE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>George Hill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31/07/1980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 Tania Rd, Clayton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jone Bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19 Brown Rd, Andway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18/02/1993</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/08/1993</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04/06/1992</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuxuan Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19/01/1988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/09/1978</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 Unban St, Booda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/09/1995</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13/12/1993</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 Space Rd, Burwood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phthisic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/09/1992</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE, MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/12/1990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diabetes mellitus</t>
   </si>
 </sst>
 </file>
@@ -113,14 +408,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -144,12 +446,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -165,7 +468,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -461,19 +764,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42349285-CB6B-2D40-9A38-D6561272E391}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="24.5" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +809,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -517,7 +830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2324</v>
       </c>
@@ -525,43 +838,677 @@
         <v>13</v>
       </c>
       <c r="C2" s="1">
-        <v>31371</v>
+        <v>33562</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
+      <c r="J2">
+        <v>3</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
       <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>6839</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="L4" t="s">
         <v>19</v>
       </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2">
+        <v>1347</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>9759</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>9087</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>9173</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>7903</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>8901</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>9876</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>3645</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>9082</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>3881</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>9876</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>7695</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>8529</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MTMSystem/out/production/MTMSystem/Candidate.xlsx
+++ b/MTMSystem/out/production/MTMSystem/Candidate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoranliu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianzhang/MTMSystem/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FD76E1D-908F-2F46-91AE-938942029563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467768C4-74CC-1445-A994-711EABC29712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A6BE8DEF-EF41-DE40-BC2A-40B3CC96FE19}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{A6BE8DEF-EF41-DE40-BC2A-40B3CC96FE19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
   <si>
     <t>Candidate ID</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>diabetes mellitus</t>
+  </si>
+  <si>
+    <t>heart disease</t>
   </si>
 </sst>
 </file>
@@ -408,19 +411,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -448,11 +451,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,7 +471,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -766,11 +769,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42349285-CB6B-2D40-9A38-D6561272E391}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" customWidth="1"/>
@@ -786,7 +789,7 @@
     <col min="14" max="14" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2324</v>
       </c>
@@ -874,7 +877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6839</v>
       </c>
@@ -918,7 +921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2138</v>
       </c>
@@ -940,6 +943,9 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
       <c r="I4" t="s">
         <v>39</v>
       </c>
@@ -959,7 +965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1347</v>
       </c>
@@ -981,6 +987,9 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
       <c r="I5" t="s">
         <v>38</v>
       </c>
@@ -1000,7 +1009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9759</v>
       </c>
@@ -1022,6 +1031,9 @@
       <c r="G6" t="s">
         <v>43</v>
       </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
       <c r="I6" t="s">
         <v>45</v>
       </c>
@@ -1041,7 +1053,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9087</v>
       </c>
@@ -1085,7 +1097,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9173</v>
       </c>
@@ -1125,8 +1137,11 @@
       <c r="M8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7903</v>
       </c>
@@ -1170,7 +1185,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8901</v>
       </c>
@@ -1192,6 +1207,9 @@
       <c r="G10" t="s">
         <v>43</v>
       </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
       <c r="I10" t="s">
         <v>38</v>
       </c>
@@ -1211,7 +1229,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9876</v>
       </c>
@@ -1255,7 +1273,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3645</v>
       </c>
@@ -1277,6 +1295,9 @@
       <c r="G12" t="s">
         <v>43</v>
       </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
       <c r="I12" t="s">
         <v>39</v>
       </c>
@@ -1296,7 +1317,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9082</v>
       </c>
@@ -1318,6 +1339,9 @@
       <c r="G13" t="s">
         <v>43</v>
       </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
       <c r="I13" t="s">
         <v>38</v>
       </c>
@@ -1337,7 +1361,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3881</v>
       </c>
@@ -1377,8 +1401,11 @@
       <c r="M14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="N14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9876</v>
       </c>
@@ -1422,7 +1449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7695</v>
       </c>
@@ -1466,7 +1493,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8529</v>
       </c>
@@ -1487,6 +1514,9 @@
       </c>
       <c r="G17" t="s">
         <v>43</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
       </c>
       <c r="I17" t="s">
         <v>39</v>

--- a/MTMSystem/out/production/MTMSystem/Candidate.xlsx
+++ b/MTMSystem/out/production/MTMSystem/Candidate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianzhang/MTMSystem/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467768C4-74CC-1445-A994-711EABC29712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F1DA20-A9F2-2940-AC9C-D6CA25D58A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{A6BE8DEF-EF41-DE40-BC2A-40B3CC96FE19}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="100">
   <si>
     <t>Candidate ID</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>heart disease</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
@@ -769,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42349285-CB6B-2D40-9A38-D6561272E391}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,7 +836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2324</v>
       </c>
@@ -871,7 +874,7 @@
         <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>

--- a/MTMSystem/out/production/MTMSystem/Candidate.xlsx
+++ b/MTMSystem/out/production/MTMSystem/Candidate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianzhang/MTMSystem/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F1DA20-A9F2-2940-AC9C-D6CA25D58A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258B0E72-A050-4A43-93B1-B12ECC6D4AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{A6BE8DEF-EF41-DE40-BC2A-40B3CC96FE19}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="89">
   <si>
     <t>Candidate ID</t>
   </si>
@@ -228,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>04/04/1980</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MS,BE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12/08/1990</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11 Bule St, Cile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>29/09/1970</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12 Yellow Rd, Buwood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,10 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>09/07/1991</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12 Oct Rd, Boxhill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,10 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>31/07/1980</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>40 Tania Rd, Clayton</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,26 +324,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>09/08/1993</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04/06/1992</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yuxuan Li</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19/01/1988</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09/09/1978</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10 Unban St, Booda</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,15 +352,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12/09/1992</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BE, MS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/12/1990</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -773,7 +729,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -874,7 +830,7 @@
         <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>
@@ -887,8 +843,8 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
+      <c r="C3" s="1">
+        <v>32557</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -931,8 +887,8 @@
       <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>83</v>
+      <c r="C4" s="1">
+        <v>31998</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -975,8 +931,8 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>84</v>
+      <c r="C5" s="1">
+        <v>33393</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -1020,7 +976,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
@@ -1061,10 +1017,10 @@
         <v>9087</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="C7" s="1">
+        <v>34718</v>
       </c>
       <c r="D7" t="s">
         <v>47</v>
@@ -1108,7 +1064,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
@@ -1141,7 +1097,7 @@
         <v>52</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1151,11 +1107,11 @@
       <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>54</v>
+      <c r="C9" s="1">
+        <v>26758</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
@@ -1170,7 +1126,7 @@
         <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9">
         <v>7</v>
@@ -1182,7 +1138,7 @@
         <v>46</v>
       </c>
       <c r="M9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N9" t="s">
         <v>43</v>
@@ -1193,16 +1149,16 @@
         <v>8901</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
+      </c>
+      <c r="C10" s="1">
+        <v>26551</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
         <v>35</v>
@@ -1226,7 +1182,7 @@
         <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N10" t="s">
         <v>43</v>
@@ -1237,16 +1193,16 @@
         <v>9876</v>
       </c>
       <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1">
+        <v>35289</v>
+      </c>
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" t="s">
         <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
@@ -1281,16 +1237,16 @@
         <v>3645</v>
       </c>
       <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1">
+        <v>25840</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
         <v>62</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
       </c>
       <c r="F12" t="s">
         <v>35</v>
@@ -1317,7 +1273,7 @@
         <v>30</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1325,16 +1281,16 @@
         <v>9082</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
+      </c>
+      <c r="C13" s="1">
+        <v>34589</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
         <v>35</v>
@@ -1369,16 +1325,16 @@
         <v>3881</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="C14" s="1">
+        <v>34159</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
         <v>35</v>
@@ -1390,7 +1346,7 @@
         <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J14">
         <v>10</v>
@@ -1405,7 +1361,7 @@
         <v>30</v>
       </c>
       <c r="N14" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1413,13 +1369,13 @@
         <v>9876</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
@@ -1434,7 +1390,7 @@
         <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1446,7 +1402,7 @@
         <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N15" t="s">
         <v>43</v>
@@ -1457,16 +1413,16 @@
         <v>7695</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="C16" s="1">
+        <v>25780</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
@@ -1501,16 +1457,16 @@
         <v>8529</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
+      </c>
+      <c r="C17" s="1">
+        <v>33219</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
@@ -1537,7 +1493,7 @@
         <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
